--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/Exportar/2.1.CL_glp_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/Exportar/2.1.CL_glp_exp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\EXCEL EXPORTAR LISTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C6E9B3-2113-4CB3-9482-7192E92AAAA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -22,10 +23,16 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1784,13 +1791,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000000000"/>
   </numFmts>
   <fonts count="39" x14ac:knownFonts="1">
     <font>
@@ -2635,12 +2642,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2680,7 +2687,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2733,10 +2740,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="14" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2763,9 +2770,9 @@
     <xf numFmtId="4" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,78 +2813,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="37" fillId="15" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2889,16 +2824,123 @@
     <xf numFmtId="3" fontId="36" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="34" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="34" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="36" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="36" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="36" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="36" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2907,46 +2949,12 @@
     <xf numFmtId="0" fontId="36" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="34" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="34" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="30" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 3" xfId="3"/>
+    <cellStyle name="Normal 10 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2984,7 +2992,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1"/>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3044,7 +3058,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2"/>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3443,7 +3463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3470,24 +3490,24 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="86"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="109"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -3801,7 +3821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3829,14 +3849,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -3847,14 +3867,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93" t="s">
+      <c r="C6" s="111"/>
+      <c r="D6" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="93"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -3885,17 +3905,17 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="115" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -3915,7 +3935,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="B12" s="98"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="14" t="s">
         <v>38</v>
       </c>
@@ -3933,7 +3953,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="99"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="14" t="s">
         <v>40</v>
       </c>
@@ -4003,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4175,11 +4195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:AC29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,21 +4239,21 @@
         <v>62</v>
       </c>
       <c r="C2" s="17"/>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="105" t="s">
+      <c r="J2" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="102" t="s">
+      <c r="K2" s="124"/>
+      <c r="L2" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
       <c r="T2" s="26" t="s">
         <v>118</v>
       </c>
@@ -4258,7 +4278,7 @@
       <c r="G3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="104"/>
+      <c r="I3" s="122"/>
       <c r="J3" s="36" t="s">
         <v>67</v>
       </c>
@@ -4418,7 +4438,7 @@
       <c r="I5" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="100">
         <f>0.0473*1000000/1000000</f>
         <v>4.7300000000000002E-2</v>
       </c>
@@ -4609,13 +4629,13 @@
       <c r="G8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="106"/>
+      <c r="K8" s="124"/>
       <c r="T8" s="16" t="s">
         <v>137</v>
       </c>
@@ -4667,7 +4687,7 @@
       <c r="G9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="104"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="22" t="s">
         <v>69</v>
       </c>
@@ -4774,10 +4794,10 @@
       <c r="G13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="100" t="s">
+      <c r="I13" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="101"/>
+      <c r="J13" s="119"/>
     </row>
     <row r="14" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
@@ -5091,8 +5111,8 @@
     <mergeCell ref="I8:I9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I23" r:id="rId1" display="https://www.ghgprotocol.org/sites/default/files/ghgp/Global-Warming-Potential-Values %28Feb 16 2016%29_1.pdf"/>
-    <hyperlink ref="N11" r:id="rId2"/>
+    <hyperlink ref="I23" r:id="rId1" display="https://www.ghgprotocol.org/sites/default/files/ghgp/Global-Warming-Potential-Values %28Feb 16 2016%29_1.pdf" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="N11" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5100,18 +5120,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Q155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="11.42578125" style="58"/>
-    <col min="4" max="4" width="0" style="58" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="58" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="58" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="58"/>
     <col min="7" max="7" width="19.28515625" style="71" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="58" customWidth="1"/>
@@ -5144,255 +5164,255 @@
       <c r="I3" s="72"/>
     </row>
     <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="112" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="114" t="s">
+      <c r="H4" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="116" t="s">
+      <c r="I4" s="129" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="117"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="130"/>
     </row>
     <row r="6" spans="2:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="118" t="s">
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="G6" s="120" t="s">
+      <c r="G6" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="92" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="124">
+      <c r="B7" s="94">
         <v>2012</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="126">
+      <c r="D7" s="96">
         <f>E7*Factores!$I$14</f>
         <v>158.02019795621607</v>
       </c>
-      <c r="E7" s="126">
+      <c r="E7" s="96">
         <f>F7*10/1000</f>
         <v>21.41</v>
       </c>
-      <c r="F7" s="126">
+      <c r="F7" s="96">
         <v>2141</v>
       </c>
-      <c r="G7" s="127">
+      <c r="G7" s="97">
         <f>D7*Factores!$J$4*(Factores!$L$4*Factores!$D$6+Factores!$N$4*Factores!$L$20+Factores!$P$4*Factores!$L$21)</f>
         <v>140.75807153147903</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="98">
         <f>E7*Factores!$J$5*(Factores!$L$5+Factores!$N$5*Factores!$L$20+Factores!$P$5*Factores!$L$21)</f>
         <v>63.958145454500006</v>
       </c>
-      <c r="I7" s="129">
+      <c r="I7" s="99">
         <f>+G7-H7</f>
         <v>76.799926076979034</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="124">
+      <c r="B8" s="94">
         <v>2012</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="126">
+      <c r="D8" s="96">
         <f>E8*Factores!$I$14</f>
         <v>186.28817358313373</v>
       </c>
-      <c r="E8" s="126">
+      <c r="E8" s="96">
         <f>F8*10/1000</f>
         <v>25.24</v>
       </c>
-      <c r="F8" s="126">
+      <c r="F8" s="96">
         <v>2524</v>
       </c>
-      <c r="G8" s="127">
+      <c r="G8" s="97">
         <f>D8*Factores!$J$4*(Factores!$L$4*Factores!$D$6+Factores!$N$4*Factores!$L$20+Factores!$P$4*Factores!$L$21)</f>
         <v>165.93805350091219</v>
       </c>
-      <c r="H8" s="128">
+      <c r="H8" s="98">
         <f>E8*Factores!$J$5*(Factores!$L$5+Factores!$N$5*Factores!$L$20+Factores!$P$5*Factores!$L$21)</f>
         <v>75.39951383799999</v>
       </c>
-      <c r="I8" s="129">
+      <c r="I8" s="99">
         <f t="shared" ref="I8:I12" si="0">+G8-H8</f>
         <v>90.5385396629122</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="124">
+      <c r="B9" s="94">
         <v>2012</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="126">
+      <c r="D9" s="96">
         <f>E9*Factores!$I$14</f>
         <v>129.23557525517717</v>
       </c>
-      <c r="E9" s="126">
+      <c r="E9" s="96">
         <f t="shared" ref="E9:E12" si="1">F9*10/1000</f>
         <v>17.510000000000002</v>
       </c>
-      <c r="F9" s="126">
+      <c r="F9" s="96">
         <v>1751</v>
       </c>
-      <c r="G9" s="127">
+      <c r="G9" s="97">
         <f>D9*Factores!$J$4*(Factores!$L$4*Factores!$D$6+Factores!$N$4*Factores!$L$20+Factores!$P$4*Factores!$L$21)</f>
         <v>115.11788101430162</v>
       </c>
-      <c r="H9" s="128">
+      <c r="H9" s="98">
         <f>E9*Factores!$J$5*(Factores!$L$5+Factores!$N$5*Factores!$L$20+Factores!$P$5*Factores!$L$21)</f>
         <v>52.307665899500009</v>
       </c>
-      <c r="I9" s="129">
+      <c r="I9" s="99">
         <f t="shared" si="0"/>
         <v>62.810215114801608</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="124">
+      <c r="B10" s="94">
         <v>2012</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="126">
+      <c r="D10" s="96">
         <f>E10*Factores!$I$14</f>
-        <v>114.671048213284</v>
-      </c>
-      <c r="E10" s="126">
+        <v>114.6956504549088</v>
+      </c>
+      <c r="E10" s="96">
         <f t="shared" si="1"/>
-        <v>15.536666666666667</v>
-      </c>
-      <c r="F10" s="126">
-        <v>1553.6666666666667</v>
-      </c>
-      <c r="G10" s="127">
+        <v>15.54</v>
+      </c>
+      <c r="F10" s="96">
+        <v>1554</v>
+      </c>
+      <c r="G10" s="97">
         <f>D10*Factores!$J$4*(Factores!$L$4*Factores!$D$6+Factores!$N$4*Factores!$L$20+Factores!$P$4*Factores!$L$21)</f>
-        <v>102.14438290646484</v>
-      </c>
-      <c r="H10" s="128">
+        <v>102.16629759921456</v>
+      </c>
+      <c r="H10" s="98">
         <f>E10*Factores!$J$5*(Factores!$L$5+Factores!$N$5*Factores!$L$20+Factores!$P$5*Factores!$L$21)</f>
-        <v>46.412722398166672</v>
-      </c>
-      <c r="I10" s="129">
+        <v>46.422680073000002</v>
+      </c>
+      <c r="I10" s="99">
         <f t="shared" si="0"/>
-        <v>55.73166050829817</v>
+        <v>55.743617526214557</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="124">
+      <c r="B11" s="94">
         <v>2012</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="126">
+      <c r="D11" s="96">
         <f>E11*Factores!$I$14</f>
-        <v>212.1697317724439</v>
-      </c>
-      <c r="E11" s="126">
+        <v>212.19433401406874</v>
+      </c>
+      <c r="E11" s="96">
         <f t="shared" si="1"/>
-        <v>28.746666666666663</v>
-      </c>
-      <c r="F11" s="126">
-        <v>2874.6666666666665</v>
-      </c>
-      <c r="G11" s="127">
+        <v>28.75</v>
+      </c>
+      <c r="F11" s="96">
+        <v>2875</v>
+      </c>
+      <c r="G11" s="97">
         <f>D11*Factores!$J$4*(Factores!$L$4*Factores!$D$6+Factores!$N$4*Factores!$L$20+Factores!$P$4*Factores!$L$21)</f>
-        <v>188.99231027362214</v>
-      </c>
-      <c r="H11" s="128">
+        <v>189.01422496637187</v>
+      </c>
+      <c r="H11" s="98">
         <f>E11*Factores!$J$5*(Factores!$L$5+Factores!$N$5*Factores!$L$20+Factores!$P$5*Factores!$L$21)</f>
-        <v>85.874987762666663</v>
-      </c>
-      <c r="I11" s="129">
+        <v>85.884945437499994</v>
+      </c>
+      <c r="I11" s="99">
         <f t="shared" si="0"/>
-        <v>103.11732251095547</v>
+        <v>103.12927952887188</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="124">
+      <c r="B12" s="94">
         <v>2012</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="126">
+      <c r="D12" s="96">
         <f>E12*Factores!$I$14</f>
-        <v>970.68144330725579</v>
-      </c>
-      <c r="E12" s="126">
+        <v>970.70604554888075</v>
+      </c>
+      <c r="E12" s="96">
         <f t="shared" si="1"/>
-        <v>131.51666666666665</v>
-      </c>
-      <c r="F12" s="126">
-        <v>13151.666666666666</v>
-      </c>
-      <c r="G12" s="127">
+        <v>131.52000000000001</v>
+      </c>
+      <c r="F12" s="96">
+        <v>13152</v>
+      </c>
+      <c r="G12" s="97">
         <f>D12*Factores!$J$4*(Factores!$L$4*Factores!$D$6+Factores!$N$4*Factores!$L$20+Factores!$P$4*Factores!$L$21)</f>
-        <v>864.64420244037115</v>
-      </c>
-      <c r="H12" s="128">
+        <v>864.66611713312091</v>
+      </c>
+      <c r="H12" s="98">
         <f>E12*Factores!$J$5*(Factores!$L$5+Factores!$N$5*Factores!$L$20+Factores!$P$5*Factores!$L$21)</f>
-        <v>392.88006054916667</v>
-      </c>
-      <c r="I12" s="129">
+        <v>392.89001822400007</v>
+      </c>
+      <c r="I12" s="99">
         <f t="shared" si="0"/>
-        <v>471.76414189120447</v>
+        <v>471.77609890912083</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I13" s="123">
+      <c r="I13" s="93">
         <f>SUM(I7:I12)</f>
-        <v>860.76180576515094</v>
+        <v>860.79767681890007</v>
       </c>
     </row>
     <row r="155" spans="17:17" x14ac:dyDescent="0.2">
@@ -5412,7 +5432,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Factores!$C$27:$C$29</xm:f>
           </x14:formula1>
